--- a/Hadoop指南.xlsx
+++ b/Hadoop指南.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F012E1BB-F146-4E92-A433-9E9A3C11736E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Docker安装单节点版本" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>安装步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,13 +107,21 @@
   </si>
   <si>
     <t>https://blog.csdn.net/weixin_34184158/article/details/87351820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://{宿主机ip地址}:50070</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,8 +182,36 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{4A708576-F533-4ED2-A067-4CB738455DA2}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,7 +235,13 @@
     <xdr:ext cx="12324912" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -255,7 +298,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -288,7 +337,13 @@
     <xdr:ext cx="2529282" cy="642484"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -357,10 +412,6 @@
             </a:rPr>
             <a:t>程序说明安装成功</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="zh-CN" altLang="en-US"/>
           </a:br>
@@ -375,10 +426,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>可以打开浏览器查看</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -428,7 +475,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -461,7 +514,13 @@
     <xdr:ext cx="4015202" cy="609013"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -527,7 +586,13 @@
     <xdr:ext cx="4342086" cy="953466"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -604,7 +669,13 @@
     <xdr:ext cx="7907165" cy="3881319"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -780,16 +851,22 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4220066" cy="14559370"/>
+    <xdr:ext cx="4220066" cy="16970543"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="6657975"/>
-          <a:ext cx="4220066" cy="14559370"/>
+          <a:ext cx="4220066" cy="16970543"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -890,6 +967,18 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - 50070:50070</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
         </a:p>
@@ -956,6 +1045,18 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - 8088:8088  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
         </a:p>
@@ -1034,25 +1135,112 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - 8188:8188   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  nodemanager1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    image: bde2020/hadoop-nodemanager:1.1.0-hadoop2.7.1-java8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    container_name: nodemanager1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    depends_on:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - namenode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - datanode1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - datanode2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - datanode3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    env_file:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - ./hadoop.env</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - 8042:8042 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>  nodemanager1:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    image: bde2020/hadoop-nodemanager:1.1.0-hadoop2.7.1-java8</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    container_name: nodemanager1</a:t>
+            <a:t>  datanode1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    image: bde2020/hadoop-datanode:1.1.0-hadoop2.7.1-java8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    container_name: datanode1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1070,19 +1258,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      - datanode1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      - datanode2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      - datanode3</a:t>
+            <a:t>    volumes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - hadoop_datanode1:/hadoop/dfs/data</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1100,13 +1282,25 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - 50075:50075   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>  datanode1:</a:t>
+            <a:t>  datanode2:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1118,7 +1312,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    container_name: datanode1</a:t>
+            <a:t>    container_name: datanode2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1142,7 +1336,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      - hadoop_datanode1:/hadoop/dfs/data</a:t>
+            <a:t>      - hadoop_datanode2:/hadoop/dfs/data</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1160,13 +1354,25 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - 50076:50075        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>  datanode2:</a:t>
+            <a:t>  datanode3:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1178,7 +1384,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    container_name: datanode2</a:t>
+            <a:t>    container_name: datanode3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1202,7 +1408,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      - hadoop_datanode2:/hadoop/dfs/data</a:t>
+            <a:t>      - hadoop_datanode3:/hadoop/dfs/data</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1220,72 +1426,24 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - 50077:50075 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>  datanode3:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    image: bde2020/hadoop-datanode:1.1.0-hadoop2.7.1-java8</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    container_name: datanode3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    depends_on:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      - namenode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    volumes:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      - hadoop_datanode3:/hadoop/dfs/data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    env_file:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      - ./hadoop.env</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>volumes:</a:t>
           </a:r>
         </a:p>
@@ -1318,7 +1476,6 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>  hadoop_historyserver:</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1328,7 +1485,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1403,6 +1560,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1438,6 +1612,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1613,11 +1804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1705,7 +1896,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1714,11 +1905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1748,22 +1939,34 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="1" t="s">
+    <row r="130" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Hadoop指南.xlsx
+++ b/Hadoop指南.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F012E1BB-F146-4E92-A433-9E9A3C11736E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Docker安装单节点版本" sheetId="1" r:id="rId1"/>
     <sheet name="Docker搭建多节点" sheetId="2" r:id="rId2"/>
+    <sheet name="Wordcount例子" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>安装步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,13 +115,70 @@
   </si>
   <si>
     <t>http://{宿主机ip地址}:50070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将jar包存入容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在docker搭建的环境中，利用hadoop-mapreduce-examples-2.6.5.jar 做处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker cp hadoop-mapreduce-examples-2.6.5.jar {datanode container_id}:/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.创建测试用文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.在HDFS上创建输入文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop fs -mkdir /input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop fs -ls /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.执行mapreduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 查看结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 查看是否输出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,10 +230,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -207,7 +270,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{4A708576-F533-4ED2-A067-4CB738455DA2}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -238,7 +301,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -301,7 +364,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -340,7 +403,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -412,6 +475,10 @@
             </a:rPr>
             <a:t>程序说明安装成功</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="zh-CN" altLang="en-US"/>
           </a:br>
@@ -426,6 +493,10 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>可以打开浏览器查看</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -478,7 +549,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,7 +588,7 @@
         <xdr:cNvPr id="7" name="文本框 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -589,7 +660,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -672,7 +743,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +928,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,8 +1555,396 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2006190" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1495425"/>
+          <a:ext cx="2006190" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>mkdir /file </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> file </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>echo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Hello World"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> &gt; test1.txt </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>echo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"Hello Hadoop"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> &gt; test2.txt</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4598888" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3600450"/>
+          <a:ext cx="4598888" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>hadoop jar hadoop-mapreduce-examples-2.6.5.jar wordcount /input /output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218019</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="8447619" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1393651" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="6048375"/>
+          <a:ext cx="1393651" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>hadoop fs -ls /output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2266326" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="6981825"/>
+          <a:ext cx="2266326" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>hadoop fs -cat /output/part-r-00000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47294</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="6781800"/>
+          <a:ext cx="2647619" cy="609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1560,23 +2019,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1612,23 +2054,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1804,7 +2229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1896,7 +2321,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1905,11 +2330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I156" sqref="I156"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1963,10 +2388,100 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>